--- a/lab 6/resultados.xlsx
+++ b/lab 6/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/Desktop/Uni/tercerano/segundo cuatri/SO/lab 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D7706F-DFBA-E647-BE31-5DA667F96BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E467B0-A841-0A48-BDDB-AA46BD7B91F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="760" windowWidth="29980" windowHeight="21480" xr2:uid="{050F62AA-8807-3446-8BA8-1A829B20976F}"/>
   </bookViews>
